--- a/xlsx/约翰·梅纳德·凯恩斯_intext.xlsx
+++ b/xlsx/约翰·梅纳德·凯恩斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
   <si>
     <t>约翰·梅纳德·凯恩斯</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_约翰·梅纳德·凯恩斯</t>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_约翰·梅纳德·凯恩斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>經濟學家</t>
+    <t>经济学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E9%83%A1</t>
   </si>
   <si>
-    <t>劍橋郡</t>
+    <t>剑桥郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B</t>
   </si>
   <si>
-    <t>劍橋</t>
+    <t>剑桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%96%A9%E5%A1%9E%E5%85%8B%E6%96%AF%E9%83%A1</t>
   </si>
   <si>
-    <t>東薩塞克斯郡</t>
+    <t>东萨塞克斯郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%81%A9%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>凱恩斯主義</t>
+    <t>凯恩斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
+    <t>亚当·斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%9D%8E%E5%98%89%E5%9C%96</t>
   </si>
   <si>
-    <t>大衛·李嘉圖</t>
+    <t>大卫·李嘉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF%C2%B7%E5%BA%AB%E8%8C%B2%E6%B6%85%E8%8C%A8</t>
   </si>
   <si>
-    <t>西蒙·史密斯·庫茲涅茨</t>
+    <t>西蒙·史密斯·库兹涅茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%8C%E5%85%8B%E6%96%AF</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8A%A0%E7%88%BE%E5%B8%83%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·加爾布雷斯</t>
+    <t>约翰·加尔布雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%9B%BC%C2%B7%E9%97%B5%E6%96%AF%E5%9F%BA</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%83%C2%B7%E5%B8%AD%E5%8B%92</t>
   </si>
   <si>
-    <t>羅勃·席勒</t>
+    <t>罗勃·席勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%88%A9%E8%8C%A8</t>
@@ -191,25 +191,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%A0%BC%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯格曼</t>
+    <t>保罗·克鲁格曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>宏觀經濟學</t>
+    <t>宏观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>凱因斯主義</t>
+    <t>凯因斯主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Liquidity_preference</t>
@@ -239,19 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%AE%B6</t>
   </si>
   <si>
-    <t>经济学家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF</t>
@@ -263,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%A1%B0%E9%80%80</t>
   </si>
   <si>
-    <t>經濟衰退</t>
+    <t>经济衰退</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%90%A7%E6%9D%A1</t>
@@ -281,19 +275,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>凯恩斯主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E8%AA%AA</t>
   </si>
   <si>
-    <t>學說</t>
+    <t>学说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%91%E4%B8%96%E4%B8%BB</t>
@@ -305,19 +296,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%81%B7</t>
   </si>
   <si>
-    <t>公職</t>
+    <t>公职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>英格蘭銀行</t>
+    <t>英格兰银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B</t>
@@ -329,43 +320,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%95%8F</t>
   </si>
   <si>
-    <t>顧問</t>
+    <t>顾问</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%AA%B3</t>
   </si>
   <si>
-    <t>香檳</t>
+    <t>香槟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯曼</t>
+    <t>保罗·克鲁曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%98%9F</t>
   </si>
   <si>
-    <t>財星</t>
+    <t>财星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%8E%88</t>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6%E5%BD%AD%E5%B8%83%E7%BD%97%E5%85%8B%E5%AD%A6%E9%99%A2</t>
@@ -401,13 +392,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E5%AD%B8</t>
   </si>
   <si>
-    <t>邏輯學</t>
+    <t>逻辑学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>教科書</t>
+    <t>教科书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Florence_Ada_Keynes</t>
@@ -437,9 +428,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>剑桥大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E8%8E%B1%E5%BE%B7%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
   </si>
   <si>
@@ -461,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>男同性戀</t>
+    <t>男同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%84%9B</t>
   </si>
   <si>
-    <t>性愛</t>
+    <t>性爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%8D%A2%E5%A7%86%E8%8C%A8%E4%BC%AF%E9%87%8C%E6%B4%BE</t>
@@ -491,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新凱恩斯學派</t>
+    <t>新凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興凱恩斯學派</t>
+    <t>新兴凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E4%B8%9A%E3%80%81%E5%88%A9%E6%81%AF%E5%92%8C%E8%B4%A7%E5%B8%81%E9%80%9A%E8%AE%BA</t>
@@ -509,9 +497,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
-    <t>经济学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -533,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%83%B9%E6%A0%BC%E6%A9%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>自由價格機制</t>
+    <t>自由价格机制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8A%A8%E6%80%A7</t>
@@ -563,9 +548,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84</t>
   </si>
   <si>
-    <t>投资</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E9%99%85%E6%95%88%E5%BA%94</t>
   </si>
   <si>
@@ -575,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%BC%8A%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>薩伊定律</t>
+    <t>萨伊定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%A8%E8%93%84</t>
@@ -593,13 +575,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
-    <t>宏观经济学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>停滯性通貨膨脹</t>
+    <t>停滞性通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -647,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%89%B9%C2%B7%E8%80%B6%E5%80%AB</t>
   </si>
   <si>
-    <t>珍妮特·耶倫</t>
+    <t>珍妮特·耶伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -683,13 +662,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亚当·斯密</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>經濟學雜誌</t>
+    <t>经济学杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E4%BC%9A</t>
@@ -731,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%8C%B2%E5%88%A9%E7%89%B9</t>
   </si>
   <si>
-    <t>亨利·赫茲利特</t>
+    <t>亨利·赫兹利特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Economic_Consequences_of_the_Peace</t>
@@ -755,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%9C%AC%E8%83%BD</t>
   </si>
   <si>
-    <t>動物本能</t>
+    <t>动物本能</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Embedded_liberalism</t>
@@ -779,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%BE%8C%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>戰後共識</t>
+    <t>战后共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fear_the_Boom_and_Bust</t>
@@ -797,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A5%92%E8%88%8C</t>
   </si>
   <si>
-    <t>饒舌</t>
+    <t>饶舌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E5%BD%B1%E7%89%87</t>
   </si>
   <si>
-    <t>音樂影片</t>
+    <t>音乐影片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YouTube</t>
@@ -827,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%B4%BE</t>
@@ -839,19 +815,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%8F%A4%E5%85%B8%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興古典學派</t>
+    <t>新兴古典学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>後凱恩斯學派</t>
+    <t>后凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -899,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AD%A6%E6%B4%BE</t>
@@ -923,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>經濟歷史學派</t>
+    <t>经济历史学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>洛桑學派</t>
+    <t>洛桑学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%98%89%E5%9B%BE%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -941,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國有社會主義</t>
+    <t>国有社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E4%B8%96%E7%BA%AA</t>
@@ -965,9 +941,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
@@ -989,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%88%B6%E5%BA%A6%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新制度經濟學</t>
+    <t>新制度经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -1001,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>熱經濟學</t>
+    <t>热经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neo-Marxian_economics</t>
@@ -1019,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>主流經濟學</t>
+    <t>主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>非主流經濟學</t>
+    <t>非主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -1037,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%AE%91%E8%8E%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>威廉·鮑莫爾</t>
+    <t>威廉·鲍莫尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/James_Duesenberry</t>
@@ -1061,25 +1034,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%A4%AB%C2%B7%E5%93%88%E7%B6%AD%E9%BB%98</t>
   </si>
   <si>
-    <t>特里夫·哈維默</t>
+    <t>特里夫·哈维默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%96%87%C2%B7%E6%BC%A2%E6%A3%AE</t>
   </si>
   <si>
-    <t>阿爾文·漢森</t>
+    <t>阿尔文·汉森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%8A%C2%B7%E5%93%88%E7%BE%85%E5%BE%B7</t>
   </si>
   <si>
-    <t>羅伊·哈羅德</t>
+    <t>罗伊·哈罗德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%B1%B3%E5%BE%B7</t>
@@ -1097,19 +1070,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·蒙代爾</t>
+    <t>罗伯特·蒙代尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%C2%B7%E5%A5%A7%E8%82%AF</t>
   </si>
   <si>
-    <t>亞瑟·奧肯</t>
+    <t>亚瑟·奥肯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Don_Patinkin</t>
@@ -1133,15 +1106,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E8%B3%93</t>
   </si>
   <si>
-    <t>詹姆士·托賓</t>
+    <t>詹姆士·托宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%87%AF%E6%81%A9%E6%96%AF%E5%AD%A6%E6%B4%BE</t>
   </si>
   <si>
-    <t>后凯恩斯学派</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Victoria_Chick</t>
   </si>
   <si>
@@ -1181,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E5%8D%A1%E7%88%BE%E5%A4%9A</t>
   </si>
   <si>
-    <t>尼古拉斯·卡爾多</t>
+    <t>尼古拉斯·卡尔多</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Micha%C5%82_Kalecki</t>
@@ -1283,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%88%A9%C2%B7%E8%B2%BB%E5%B8%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>斯坦利·費希爾</t>
+    <t>斯坦利·费希尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%B0%94%E8%BF%AA%C2%B7%E5%8A%A0%E5%88%A9</t>
@@ -1313,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%80%A7%E4%BF%A1%E5%AE%8F</t>
   </si>
   <si>
-    <t>清瀧信宏</t>
+    <t>清泷信宏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E9%AB%98%E5%88%A9%C2%B7%E6%9B%BC%E6%98%86</t>
@@ -1355,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%87%8C%E5%9F%83%E7%88%BE%C2%B7%E9%AD%AF%E6%AF%94%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯里埃爾·魯比尼</t>
+    <t>鲁里埃尔·鲁比尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E6%96%BD%E8%8E%B1%E8%B4%B9%E5%B0%94</t>
@@ -1367,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%96%A9%E9%BB%98%E6%96%AF</t>
   </si>
   <si>
-    <t>勞倫斯·薩默斯</t>
+    <t>劳伦斯·萨默斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7B%C2%B7%E6%B3%B0%E5%8B%92</t>
@@ -1391,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E9%9C%8D%E7%89%B9%E6%9E%97</t>
   </si>
   <si>
-    <t>哈羅德·霍特林</t>
+    <t>哈罗德·霍特林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -1427,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%8F%B2%E6%9D%B1</t>
   </si>
   <si>
-    <t>理查德·史東</t>
+    <t>理查德·史东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E6%96%AF%C2%B7%E9%98%BF%E7%BD%97</t>
@@ -1439,9 +1409,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E5%AE%BE</t>
   </si>
   <si>
-    <t>詹姆士·托宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%B4%A2%E6%B4%9B</t>
   </si>
   <si>
@@ -1469,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%BE%B7%E5%B8%83%E9%AD%AF</t>
   </si>
   <si>
-    <t>傑拉德·德布魯</t>
+    <t>杰拉德·德布鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E6%BE%A4%E5%BC%98%E6%96%87</t>
   </si>
   <si>
-    <t>宇澤弘文</t>
+    <t>宇泽弘文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%AF%BA%E4%BB%80%C2%B7%E7%A7%91%E5%B0%94%E5%A5%88</t>
@@ -1511,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE%C2%B7W%C2%B7%E5%96%AC%E6%A0%B9%E6%A3%AE</t>
   </si>
   <si>
-    <t>戴爾·W·喬根森</t>
+    <t>戴尔·W·乔根森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B0%BC%C2%B7%E9%98%BF%E7%89%B9%E9%87%91%E6%A3%AE</t>
@@ -1595,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%93%88%E5%BE%B7%E6%9B%BC%C2%B7%E6%91%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>約翰·哈德曼·摩爾</t>
+    <t>约翰·哈德曼·摩尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%89%B9%C2%B7%E9%9C%8D%E5%B0%94%E5%A7%86%E6%96%AF%E7%89%B9%E4%BC%A6</t>
@@ -1613,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1631,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1649,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1661,25 +1628,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>中華民國國家圖書館</t>
+    <t>中华民国国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3112,7 +3079,7 @@
         <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>9</v>
@@ -3138,10 +3105,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
         <v>8</v>
@@ -3196,10 +3163,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>19</v>
@@ -3225,10 +3192,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3254,10 +3221,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3283,10 +3250,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3312,10 +3279,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3341,10 +3308,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3370,10 +3337,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3399,10 +3366,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -3428,10 +3395,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3457,10 +3424,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3515,10 +3482,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3544,10 +3511,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3573,10 +3540,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3602,10 +3569,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3631,10 +3598,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3660,10 +3627,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3689,10 +3656,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3718,10 +3685,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3747,10 +3714,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3776,10 +3743,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3805,10 +3772,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3834,10 +3801,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3863,10 +3830,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -3892,10 +3859,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3921,10 +3888,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3979,10 +3946,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4008,10 +3975,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4037,10 +4004,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4066,10 +4033,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4095,10 +4062,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4124,10 +4091,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4153,10 +4120,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4211,10 +4178,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4240,10 +4207,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4269,10 +4236,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4298,10 +4265,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4327,10 +4294,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>13</v>
@@ -4356,10 +4323,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4385,10 +4352,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4414,10 +4381,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4443,10 +4410,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>7</v>
@@ -4472,10 +4439,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -4501,10 +4468,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4530,10 +4497,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="G86" t="n">
         <v>50</v>
@@ -4559,10 +4526,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -4588,10 +4555,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4617,10 +4584,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4646,10 +4613,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4675,10 +4642,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4704,10 +4671,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4733,10 +4700,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4762,10 +4729,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4791,10 +4758,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4820,10 +4787,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4849,10 +4816,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4878,10 +4845,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4907,10 +4874,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4936,10 +4903,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4965,10 +4932,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4994,10 +4961,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5023,10 +4990,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -5081,10 +5048,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G105" t="n">
         <v>75</v>
@@ -5110,10 +5077,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5139,10 +5106,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5168,10 +5135,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5197,10 +5164,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5226,10 +5193,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5255,10 +5222,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5313,10 +5280,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5342,10 +5309,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5371,10 +5338,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5400,10 +5367,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5429,10 +5396,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5458,10 +5425,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5487,10 +5454,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5516,10 +5483,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5545,10 +5512,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5574,10 +5541,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5603,10 +5570,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5632,10 +5599,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5661,10 +5628,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5690,10 +5657,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5719,10 +5686,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F127" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5748,10 +5715,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5777,10 +5744,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5806,10 +5773,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5835,10 +5802,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F131" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="G131" t="n">
         <v>12</v>
@@ -5864,10 +5831,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5893,10 +5860,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F133" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5922,10 +5889,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5951,10 +5918,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5980,10 +5947,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6009,10 +5976,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6038,10 +6005,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6067,10 +6034,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6096,10 +6063,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6125,10 +6092,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6154,10 +6121,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G142" t="n">
         <v>19</v>
@@ -6183,10 +6150,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6212,10 +6179,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6241,10 +6208,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6270,10 +6237,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6299,10 +6266,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F147" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G147" t="n">
         <v>7</v>
@@ -6328,10 +6295,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6357,10 +6324,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F149" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="G149" t="n">
         <v>8</v>
@@ -6386,10 +6353,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6415,10 +6382,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F151" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6444,10 +6411,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F152" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6473,10 +6440,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F153" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6502,10 +6469,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F154" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6531,10 +6498,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F155" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6560,10 +6527,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F156" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6589,10 +6556,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F157" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6618,10 +6585,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6647,10 +6614,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6676,10 +6643,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6705,10 +6672,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F161" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6734,10 +6701,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6763,10 +6730,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6792,10 +6759,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -6821,10 +6788,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6850,10 +6817,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6879,10 +6846,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6908,10 +6875,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F168" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G168" t="n">
         <v>61</v>
@@ -6937,10 +6904,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F169" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6966,10 +6933,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F170" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6995,10 +6962,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7024,10 +6991,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7053,10 +7020,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7082,10 +7049,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7111,10 +7078,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7140,10 +7107,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7169,10 +7136,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7198,10 +7165,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F178" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7227,10 +7194,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F179" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7256,10 +7223,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F180" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7285,10 +7252,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F181" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7314,10 +7281,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F182" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7343,10 +7310,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F183" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7372,10 +7339,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F184" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7401,10 +7368,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F185" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7430,10 +7397,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F186" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7459,10 +7426,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F187" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7488,10 +7455,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7517,10 +7484,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F189" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7546,10 +7513,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F190" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7575,10 +7542,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7633,10 +7600,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F193" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7662,10 +7629,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F194" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7691,10 +7658,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7720,10 +7687,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7749,10 +7716,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7778,10 +7745,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7807,10 +7774,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F199" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -7836,10 +7803,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F200" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7865,10 +7832,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7923,10 +7890,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F203" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7952,10 +7919,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7981,10 +7948,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8010,10 +7977,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F206" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8039,10 +8006,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F207" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8068,10 +8035,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F208" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8097,10 +8064,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F209" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8126,10 +8093,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F210" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8155,10 +8122,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F211" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8184,10 +8151,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F212" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8213,10 +8180,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F213" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8242,10 +8209,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F214" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8271,10 +8238,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F215" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8300,10 +8267,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F216" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8358,10 +8325,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F218" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8416,10 +8383,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F220" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8445,10 +8412,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F221" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8474,10 +8441,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F222" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8503,10 +8470,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F223" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8532,10 +8499,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F224" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8561,10 +8528,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F225" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8590,10 +8557,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F226" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8619,10 +8586,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F227" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8648,10 +8615,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F228" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8677,10 +8644,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F229" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8706,10 +8673,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F230" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8735,10 +8702,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F231" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8764,10 +8731,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F232" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8793,10 +8760,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F233" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8822,10 +8789,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F234" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8851,10 +8818,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F235" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8909,10 +8876,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F237" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -8938,10 +8905,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F238" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -8967,10 +8934,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F239" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -8996,10 +8963,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F240" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9025,10 +8992,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F241" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9054,10 +9021,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F242" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9083,10 +9050,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F243" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9141,10 +9108,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F245" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9170,10 +9137,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F246" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9199,10 +9166,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F247" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9228,10 +9195,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F248" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9257,10 +9224,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F249" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9286,10 +9253,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F250" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9315,10 +9282,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F251" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9344,10 +9311,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F252" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9373,10 +9340,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F253" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9402,10 +9369,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F254" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9431,10 +9398,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F255" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9460,10 +9427,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F256" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9489,10 +9456,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F257" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9518,10 +9485,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F258" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9547,10 +9514,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F259" t="s">
-        <v>474</v>
+        <v>363</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9576,10 +9543,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F260" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9605,10 +9572,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F261" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9634,10 +9601,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F262" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9663,10 +9630,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F263" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9692,10 +9659,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F264" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9721,10 +9688,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F265" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9750,10 +9717,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F266" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9779,10 +9746,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F267" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9808,10 +9775,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F268" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9837,10 +9804,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F269" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9866,10 +9833,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F270" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9895,10 +9862,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F271" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9924,10 +9891,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F272" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9953,10 +9920,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F273" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9982,10 +9949,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F274" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10011,10 +9978,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F275" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10040,10 +10007,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F276" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10069,10 +10036,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F277" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10098,10 +10065,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F278" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10127,10 +10094,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F279" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10156,10 +10123,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F280" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10185,10 +10152,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F281" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10214,10 +10181,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F282" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10243,10 +10210,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F283" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10272,10 +10239,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F284" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10301,10 +10268,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F285" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10330,10 +10297,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="F286" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10359,10 +10326,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="F287" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10388,10 +10355,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F288" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10417,10 +10384,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F289" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10446,10 +10413,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F290" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -10475,10 +10442,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F291" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10504,10 +10471,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F292" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10533,10 +10500,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F293" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10562,10 +10529,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F294" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10591,10 +10558,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F295" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10620,10 +10587,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F296" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10649,10 +10616,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F297" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10678,10 +10645,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F298" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10707,10 +10674,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F299" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10736,10 +10703,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F300" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10765,10 +10732,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F301" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10794,10 +10761,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F302" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10823,10 +10790,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F303" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10852,10 +10819,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F304" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>

--- a/xlsx/约翰·梅纳德·凯恩斯_intext.xlsx
+++ b/xlsx/约翰·梅纳德·凯恩斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>英國</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_约翰·梅纳德·凯恩斯</t>
+    <t>体育运动_体育运动_竞争_约翰·梅纳德·凯恩斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
@@ -3144,7 +3144,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -4333,7 +4333,7 @@
         <v>150</v>
       </c>
       <c r="G79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -4536,7 +4536,7 @@
         <v>164</v>
       </c>
       <c r="G86" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -4565,7 +4565,7 @@
         <v>166</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -5087,7 +5087,7 @@
         <v>198</v>
       </c>
       <c r="G105" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -5841,7 +5841,7 @@
         <v>88</v>
       </c>
       <c r="G131" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6160,7 +6160,7 @@
         <v>266</v>
       </c>
       <c r="G142" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6914,7 +6914,7 @@
         <v>310</v>
       </c>
       <c r="G168" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7378,7 +7378,7 @@
         <v>338</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
